--- a/servers/data/2learning_gamble_sequence.xlsx
+++ b/servers/data/2learning_gamble_sequence.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/samba/Office/Users/hySeon/Behavioral_contagion/web_study/web 개발 참고자료/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AB5721-50EC-C942-B4E8-F6F3734D45A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{326B314C-D182-0A49-9CF6-CDAA28EC6948}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="460" windowWidth="28300" windowHeight="16440" activeTab="3" xr2:uid="{C3B9D836-3C27-6348-A872-3F8D8D3B2A6F}"/>
+    <workbookView xWindow="420" yWindow="460" windowWidth="28300" windowHeight="16440" activeTab="2" xr2:uid="{C3B9D836-3C27-6348-A872-3F8D8D3B2A6F}"/>
   </bookViews>
   <sheets>
     <sheet name="random 1" sheetId="1" r:id="rId1"/>
@@ -426,7 +426,7 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1397,7 +1397,7 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>2</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -1709,7 +1709,7 @@
         <v>2</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -1839,7 +1839,7 @@
         <v>2</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -1995,7 +1995,7 @@
         <v>2</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -2541,7 +2541,7 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -3165,7 +3165,7 @@
         <v>2</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -3425,7 +3425,7 @@
         <v>2</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -3503,7 +3503,7 @@
         <v>2</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -3607,7 +3607,7 @@
         <v>2</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -3649,8 +3649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151219DC-3E95-B84D-A909-E0BB683810CE}">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A2:H32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -3737,7 +3737,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -4517,7 +4517,7 @@
         <v>2</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -4621,7 +4621,7 @@
         <v>2</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -4647,7 +4647,7 @@
         <v>2</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -4673,7 +4673,7 @@
         <v>2</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -4725,7 +4725,7 @@
         <v>2</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4733,7 +4733,7 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="B42">
         <v>90</v>
@@ -4751,7 +4751,7 @@
         <v>1</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4759,7 +4759,7 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="B43">
         <v>90</v>
@@ -4777,7 +4777,7 @@
         <v>2</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4785,7 +4785,7 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B44">
         <v>78</v>
@@ -4803,7 +4803,7 @@
         <v>1</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4811,7 +4811,7 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="B45">
         <v>14</v>
@@ -4829,7 +4829,7 @@
         <v>1</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4837,7 +4837,7 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="B46">
         <v>15</v>
@@ -4855,7 +4855,7 @@
         <v>1</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4863,7 +4863,7 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="B47">
         <v>60</v>
@@ -4881,7 +4881,7 @@
         <v>2</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4889,7 +4889,7 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="B48">
         <v>15</v>
@@ -4907,7 +4907,7 @@
         <v>2</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4915,7 +4915,7 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B49">
         <v>90</v>
@@ -4933,7 +4933,7 @@
         <v>1</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4941,7 +4941,7 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="B50">
         <v>25</v>
@@ -4967,7 +4967,7 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B51">
         <v>34</v>
@@ -4985,7 +4985,7 @@
         <v>2</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -4993,7 +4993,7 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="B52">
         <v>25</v>
@@ -5019,7 +5019,7 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="B53">
         <v>55</v>
@@ -5045,7 +5045,7 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="B54">
         <v>58</v>
@@ -5071,7 +5071,7 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="B55">
         <v>15</v>
@@ -5089,7 +5089,7 @@
         <v>1</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5097,7 +5097,7 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="B56">
         <v>14</v>
@@ -5115,7 +5115,7 @@
         <v>2</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5123,7 +5123,7 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="B57">
         <v>55</v>
@@ -5149,7 +5149,7 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="B58">
         <v>10</v>
@@ -5175,7 +5175,7 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="B59">
         <v>90</v>
@@ -5201,7 +5201,7 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="B60">
         <v>15</v>
@@ -5227,7 +5227,7 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="B61">
         <v>15</v>
@@ -5261,8 +5261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9194DB48-F073-B54B-90CC-84FB8F474AA6}">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -6129,7 +6129,7 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -6363,7 +6363,7 @@
         <v>2</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -6545,7 +6545,7 @@
         <v>2</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -6675,7 +6675,7 @@
         <v>2</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -6727,7 +6727,7 @@
         <v>2</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56">
         <v>1</v>

--- a/servers/data/2learning_gamble_sequence.xlsx
+++ b/servers/data/2learning_gamble_sequence.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/samba/Office/Users/hySeon/Behavioral_contagion/web_study/web 개발 참고자료/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/samba/Office/Users/hySeon/Behavioral_contagion/web_study/web 개발 참고자료/web_수정사항_200703/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{326B314C-D182-0A49-9CF6-CDAA28EC6948}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160241E1-6254-F349-A1CC-8F92AD3D0CEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="460" windowWidth="28300" windowHeight="16440" activeTab="2" xr2:uid="{C3B9D836-3C27-6348-A872-3F8D8D3B2A6F}"/>
+    <workbookView xWindow="420" yWindow="460" windowWidth="28300" windowHeight="16440" activeTab="3" xr2:uid="{C3B9D836-3C27-6348-A872-3F8D8D3B2A6F}"/>
   </bookViews>
   <sheets>
     <sheet name="random 1" sheetId="1" r:id="rId1"/>
@@ -66,18 +66,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -111,7 +111,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -425,23 +425,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDEE6ADB-2CBA-8042-81F0-3FE182AB7687}">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -467,7 +467,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -649,7 +649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>3</v>
       </c>
@@ -1579,13 +1579,13 @@
         <v>1</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>4</v>
       </c>
@@ -1605,13 +1605,13 @@
         <v>2</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>5</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>6</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>7</v>
       </c>
@@ -1683,13 +1683,13 @@
         <v>1</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>8</v>
       </c>
@@ -1709,13 +1709,13 @@
         <v>2</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>9</v>
       </c>
@@ -1735,13 +1735,13 @@
         <v>2</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>10</v>
       </c>
@@ -1761,13 +1761,13 @@
         <v>1</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>11</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>12</v>
       </c>
@@ -1813,13 +1813,13 @@
         <v>1</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>13</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>14</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>15</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>16</v>
       </c>
@@ -1917,13 +1917,13 @@
         <v>1</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>17</v>
       </c>
@@ -1943,13 +1943,13 @@
         <v>1</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>18</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>19</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>20</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>2</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -2038,22 +2038,22 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A2:H61"/>
+      <selection activeCell="A2" sqref="A2:H61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1</v>
       </c>
@@ -3139,13 +3139,13 @@
         <v>2</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>3</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>4</v>
       </c>
@@ -3217,13 +3217,13 @@
         <v>1</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>5</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>6</v>
       </c>
@@ -3269,13 +3269,13 @@
         <v>2</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>7</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>8</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>9</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>10</v>
       </c>
@@ -3373,13 +3373,13 @@
         <v>2</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>11</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>12</v>
       </c>
@@ -3425,13 +3425,13 @@
         <v>2</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>13</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>14</v>
       </c>
@@ -3477,13 +3477,13 @@
         <v>1</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>15</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>16</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>17</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>18</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>19</v>
       </c>
@@ -3613,7 +3613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>20</v>
       </c>
@@ -3649,23 +3649,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151219DC-3E95-B84D-A909-E0BB683810CE}">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4445,7 +4445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1</v>
       </c>
@@ -4751,13 +4751,13 @@
         <v>1</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2</v>
       </c>
@@ -4777,13 +4777,13 @@
         <v>2</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>3</v>
       </c>
@@ -4803,13 +4803,13 @@
         <v>1</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>4</v>
       </c>
@@ -4829,13 +4829,13 @@
         <v>1</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>5</v>
       </c>
@@ -4855,13 +4855,13 @@
         <v>1</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>6</v>
       </c>
@@ -4881,13 +4881,13 @@
         <v>2</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>7</v>
       </c>
@@ -4907,13 +4907,13 @@
         <v>2</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>8</v>
       </c>
@@ -4933,13 +4933,13 @@
         <v>1</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>9</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>10</v>
       </c>
@@ -4985,13 +4985,13 @@
         <v>2</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>11</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>12</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>13</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>14</v>
       </c>
@@ -5089,13 +5089,13 @@
         <v>1</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>15</v>
       </c>
@@ -5115,13 +5115,13 @@
         <v>2</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>16</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>17</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>18</v>
       </c>
@@ -5199,7 +5199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>19</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>20</v>
       </c>
@@ -5261,23 +5261,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9194DB48-F073-B54B-90CC-84FB8F474AA6}">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5303,7 +5303,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5329,7 +5329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5355,7 +5355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5615,7 +5615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5693,7 +5693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5797,7 +5797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5823,7 +5823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5875,7 +5875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5901,7 +5901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6005,7 +6005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -6083,7 +6083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -6109,7 +6109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -6135,7 +6135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -6213,7 +6213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -6239,7 +6239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6317,7 +6317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1</v>
       </c>
@@ -6363,13 +6363,13 @@
         <v>2</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2</v>
       </c>
@@ -6389,13 +6389,13 @@
         <v>2</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>3</v>
       </c>
@@ -6421,7 +6421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>4</v>
       </c>
@@ -6447,7 +6447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>5</v>
       </c>
@@ -6467,13 +6467,13 @@
         <v>2</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>6</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>7</v>
       </c>
@@ -6525,7 +6525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>8</v>
       </c>
@@ -6545,13 +6545,13 @@
         <v>2</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>9</v>
       </c>
@@ -6571,13 +6571,13 @@
         <v>1</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>10</v>
       </c>
@@ -6603,7 +6603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>11</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>12</v>
       </c>
@@ -6649,13 +6649,13 @@
         <v>1</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>13</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>14</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>15</v>
       </c>
@@ -6727,13 +6727,13 @@
         <v>2</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>16</v>
       </c>
@@ -6753,13 +6753,13 @@
         <v>2</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>17</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>18</v>
       </c>
@@ -6805,13 +6805,13 @@
         <v>1</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>19</v>
       </c>
@@ -6837,7 +6837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>20</v>
       </c>
